--- a/tf_figure/glyox.xlsx
+++ b/tf_figure/glyox.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Reactions</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>SUC</t>
+  </si>
+  <si>
+    <t>reversible</t>
   </si>
   <si>
     <t>R20</t>
@@ -671,26 +674,35 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -703,11 +715,14 @@
       </c>
       <c r="E4">
         <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -715,21 +730,27 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -739,11 +760,14 @@
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -753,11 +777,14 @@
       </c>
       <c r="K8">
         <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -767,53 +794,69 @@
       </c>
       <c r="L9">
         <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <v>-1</v>
       </c>
       <c r="H10">
         <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>-1</v>
       </c>
       <c r="I11">
         <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="J12">
         <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13">
         <v>-1</v>
       </c>
-    </row>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>